--- a/biology/Médecine/Georges_Vigneron_d'Heucqueville/Georges_Vigneron_d'Heucqueville.xlsx
+++ b/biology/Médecine/Georges_Vigneron_d'Heucqueville/Georges_Vigneron_d'Heucqueville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Vigneron_d%27Heucqueville</t>
+          <t>Georges_Vigneron_d'Heucqueville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Vigneron d'Heucqueville, né le 12 décembre 1908 à Paris et mort le 4 novembre 1994 dans la même ville, est un médecin aliéniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Vigneron_d%27Heucqueville</t>
+          <t>Georges_Vigneron_d'Heucqueville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Vigneron d'Heucqueville est le fils de Raoul Vigneron d'Heucqueville (1879-1959), médecin à Paris, chevalier de la Légion d'honneur [1], le neveu de Charles d'Heucqueville (1871-1935), président au Tribunal civil de la Seine, collectionneur d'art et président-fondateur de la Fondation d'Heucqueville[2], et le petit-neveu du sénateur Émile Monsservin[3],[4]. 
-Après avoir été reçu en tant que docteur en médecine, il devient médecin-chef des Asiles publics[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Vigneron d'Heucqueville est le fils de Raoul Vigneron d'Heucqueville (1879-1959), médecin à Paris, chevalier de la Légion d'honneur , le neveu de Charles d'Heucqueville (1871-1935), président au Tribunal civil de la Seine, collectionneur d'art et président-fondateur de la Fondation d'Heucqueville, et le petit-neveu du sénateur Émile Monsservin,. 
+Après avoir été reçu en tant que docteur en médecine, il devient médecin-chef des Asiles publics.
 Il succède à son oncle à la tête de la Fondation d'Heucqueville, œuvre privée d'adoption d'enfants abandonnés, situé au 81 à 85 du boulevard de Montmorency dans le 16e arrondissement de Paris. Cette importante établissement de l'époque, situé au 81 à 85 du boulevard de Montmorency dans le 16e arrondissement de Paris, sera reconnu d'utilité publique dès 1935 avec son Centre d'études. Le président Georges Pompidou et son épouse Claude Pompidou y ont adopté leur fils Alain Pompidou.
-Georges d'Heucqueville assure également les fonctions de médecin légiste à l'université de Paris, ainsi que celle d'expert près des tribunaux. Il est le médecin attaché à l'Institut médical des Frères de Saint-Jean-de-Dieu, à Lavilletertre[6]
+Georges d'Heucqueville assure également les fonctions de médecin légiste à l'université de Paris, ainsi que celle d'expert près des tribunaux. Il est le médecin attaché à l'Institut médical des Frères de Saint-Jean-de-Dieu, à Lavilletertre
 Il est le directeur général et rédacteur en chef des Archives de neurologie.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_Vigneron_d%27Heucqueville</t>
+          <t>Georges_Vigneron_d'Heucqueville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,48 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans un article publié en 1933, il s’oppose à la législation allemande en matière de stérilisation, qu’il estime dominée par une « mystique de la race »[7].
-Publications
-L'élevage en commun des nourrissons : les pouponnières  (préf. Dr Victor Wallich), Paris, 1922.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un article publié en 1933, il s’oppose à la législation allemande en matière de stérilisation, qu’il estime dominée par une « mystique de la race ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Vigneron_d'Heucqueville</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Vigneron_d%27Heucqueville</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'élevage en commun des nourrissons : les pouponnières  (préf. Dr Victor Wallich), Paris, 1922.
 Traitement des grands syndromes d'excitation nerveuse par les nouveaux alcaloïdes hypotoxiques de Polonovski, 1931.
 Le Profil de développement dans la pratique de la neuropsychiatrie infantile, 1933.
 La thérapeutique intensive appliquée dans un internat aux enfants insuffisants, 1934.
